--- a/data/out/kaggle/fifa/active_suspence.xlsx
+++ b/data/out/kaggle/fifa/active_suspence.xlsx
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
